--- a/CLI_Data_Cleaning_Tool/test_excel.xlsx
+++ b/CLI_Data_Cleaning_Tool/test_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Python-Backend\Text_Based_Data_Cleaning_Assistant\CLI_Data_Cleaning_Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F893307B-2836-4A47-8B41-19BE3F14C83C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC6DD83-116D-4079-833C-5FE2DA044C86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="7200" xr2:uid="{EB516520-6E83-4BB4-82E1-AE4C4938441F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -37,6 +37,21 @@
   </si>
   <si>
     <t>johndoe@gmail.com</t>
+  </si>
+  <si>
+    <t>_johndoe@gmail.com</t>
+  </si>
+  <si>
+    <t>Jane Smith</t>
+  </si>
+  <si>
+    <t>janesmith(at)example.com</t>
+  </si>
+  <si>
+    <t>Alice Johnson</t>
+  </si>
+  <si>
+    <t>alice.johnson@example</t>
   </si>
 </sst>
 </file>
@@ -399,15 +414,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DED0D03-7C99-46BA-817C-63B2F0C0053A}">
-  <dimension ref="B2:C13"/>
+  <dimension ref="B2:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
@@ -506,10 +522,36 @@
         <v>3</v>
       </c>
     </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{A0CC10A9-4CA2-4EA9-9E9F-B2F5ECCDC263}"/>
     <hyperlink ref="C4:C13" r:id="rId2" display="johndoe@gmail.com" xr:uid="{2B1EF1F0-D137-4CBC-A39D-0B00C752E9E2}"/>
+    <hyperlink ref="C14" r:id="rId3" xr:uid="{0B596A17-51C2-4A5B-9E39-3E36109FEA95}"/>
+    <hyperlink ref="C16" r:id="rId4" xr:uid="{D4C771EB-FF61-4646-8F05-928058514756}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CLI_Data_Cleaning_Tool/test_excel.xlsx
+++ b/CLI_Data_Cleaning_Tool/test_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Python-Backend\Text_Based_Data_Cleaning_Assistant\CLI_Data_Cleaning_Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC6DD83-116D-4079-833C-5FE2DA044C86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DB495C-F317-43C6-A22B-2D650731CF96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="7200" xr2:uid="{EB516520-6E83-4BB4-82E1-AE4C4938441F}"/>
   </bookViews>
@@ -414,144 +414,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DED0D03-7C99-46BA-817C-63B2F0C0053A}">
-  <dimension ref="B2:C16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
     <col min="3" max="3" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
       <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{A0CC10A9-4CA2-4EA9-9E9F-B2F5ECCDC263}"/>
-    <hyperlink ref="C4:C13" r:id="rId2" display="johndoe@gmail.com" xr:uid="{2B1EF1F0-D137-4CBC-A39D-0B00C752E9E2}"/>
-    <hyperlink ref="C14" r:id="rId3" xr:uid="{0B596A17-51C2-4A5B-9E39-3E36109FEA95}"/>
-    <hyperlink ref="C16" r:id="rId4" xr:uid="{D4C771EB-FF61-4646-8F05-928058514756}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{A0CC10A9-4CA2-4EA9-9E9F-B2F5ECCDC263}"/>
+    <hyperlink ref="B3:B12" r:id="rId2" display="johndoe@gmail.com" xr:uid="{2B1EF1F0-D137-4CBC-A39D-0B00C752E9E2}"/>
+    <hyperlink ref="B13" r:id="rId3" xr:uid="{0B596A17-51C2-4A5B-9E39-3E36109FEA95}"/>
+    <hyperlink ref="B15" r:id="rId4" xr:uid="{D4C771EB-FF61-4646-8F05-928058514756}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CLI_Data_Cleaning_Tool/test_excel.xlsx
+++ b/CLI_Data_Cleaning_Tool/test_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Python-Backend\Text_Based_Data_Cleaning_Assistant\CLI_Data_Cleaning_Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DB495C-F317-43C6-A22B-2D650731CF96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDF96C6-3DD8-464C-9B2A-48DA9DC298AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="7200" xr2:uid="{EB516520-6E83-4BB4-82E1-AE4C4938441F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>alice.johnson@example</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      nodhiambo01</t>
   </si>
 </sst>
 </file>
@@ -414,9 +420,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DED0D03-7C99-46BA-817C-63B2F0C0053A}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -545,6 +553,14 @@
         <v>8</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{A0CC10A9-4CA2-4EA9-9E9F-B2F5ECCDC263}"/>

--- a/CLI_Data_Cleaning_Tool/test_excel.xlsx
+++ b/CLI_Data_Cleaning_Tool/test_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Python-Backend\Text_Based_Data_Cleaning_Assistant\CLI_Data_Cleaning_Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDF96C6-3DD8-464C-9B2A-48DA9DC298AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEE5C5A-2E72-468A-BD62-902E74CD5BE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="7200" xr2:uid="{EB516520-6E83-4BB4-82E1-AE4C4938441F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Nick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      nodhiambo01</t>
   </si>
 </sst>
 </file>
@@ -557,9 +554,6 @@
       <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>
